--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.508371234E9</v>
+        <v>-1.510868435E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.510868435E9</v>
+        <v>-1.511853281E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.511853281E9</v>
+        <v>-1.511880018E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.511880018E9</v>
+        <v>-1.511887344E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.511887344E9</v>
+        <v>-1.511887939E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.511887939E9</v>
+        <v>-1.511992824E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.511992824E9</v>
+        <v>-1.511996245E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.511996245E9</v>
+        <v>-1.511997267E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.508371234E9</v>
+        <v>-1.512080074E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.512080074E9</v>
+        <v>-1.512081042E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -136,13 +136,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="n">
-        <v>50.0</v>
+        <v>1.0</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.512686523E9</v>
+        <v>-1.512777066E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -187,7 +187,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" t="n">
         <v>9999999.0</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.512777066E9</v>
+        <v>-1.512778883E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.512778883E9</v>
+        <v>-1.512833151E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -62,7 +62,7 @@
     <t>optimization Info</t>
   </si>
   <si>
-    <t>Inital Solution 0 changes  totQ=0.00 totD=3029.01 $3029.01</t>
+    <t>Inital Solution 0 changes  totQ=0.00 totD=3320.12 $3320.12</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.518487581E9</v>
+        <v>-1.512833151E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -159,19 +159,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>3029.01318359375</v>
+        <v>3320.119873046875</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>1766.9243570963542</v>
+        <v>1936.7365926106772</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>3029.01</v>
+        <v>3320.12</v>
       </c>
     </row>
     <row r="3">
@@ -201,283 +201,283 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="C5" t="n">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="D5" t="n">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
       <c r="E5" t="n">
-        <v>94.0</v>
+        <v>100.0</v>
       </c>
       <c r="F5" t="n">
-        <v>93.0</v>
+        <v>101.0</v>
       </c>
       <c r="G5" t="n">
-        <v>98.0</v>
+        <v>168.0</v>
       </c>
       <c r="H5" t="n">
-        <v>99.0</v>
+        <v>167.0</v>
       </c>
       <c r="I5" t="n">
-        <v>100.0</v>
+        <v>166.0</v>
       </c>
       <c r="J5" t="n">
-        <v>101.0</v>
+        <v>188.0</v>
       </c>
       <c r="K5" t="n">
-        <v>102.0</v>
+        <v>189.0</v>
       </c>
       <c r="L5" t="n">
-        <v>103.0</v>
+        <v>190.0</v>
       </c>
       <c r="M5" t="n">
-        <v>92.0</v>
+        <v>191.0</v>
       </c>
       <c r="N5" t="n">
-        <v>91.0</v>
+        <v>192.0</v>
       </c>
       <c r="O5" t="n">
-        <v>90.0</v>
+        <v>194.0</v>
       </c>
       <c r="P5" t="n">
-        <v>80.0</v>
+        <v>195.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>79.0</v>
+        <v>196.0</v>
       </c>
       <c r="R5" t="n">
-        <v>81.0</v>
+        <v>201.0</v>
       </c>
       <c r="S5" t="n">
-        <v>89.0</v>
+        <v>197.0</v>
       </c>
       <c r="T5" t="n">
-        <v>82.0</v>
+        <v>198.0</v>
       </c>
       <c r="U5" t="n">
-        <v>83.0</v>
+        <v>199.0</v>
       </c>
       <c r="V5" t="n">
-        <v>88.0</v>
+        <v>145.0</v>
       </c>
       <c r="W5" t="n">
-        <v>87.0</v>
+        <v>146.0</v>
       </c>
       <c r="X5" t="n">
-        <v>84.0</v>
+        <v>147.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>85.0</v>
+        <v>148.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>86.0</v>
+        <v>140.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.0</v>
+        <v>141.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.0</v>
+        <v>142.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.0</v>
+        <v>143.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>115.0</v>
+        <v>144.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>114.0</v>
+        <v>200.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>112.0</v>
+        <v>221.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>111.0</v>
+        <v>222.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>110.0</v>
+        <v>223.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>109.0</v>
+        <v>224.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>108.0</v>
+        <v>225.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>104.0</v>
+        <v>226.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>105.0</v>
+        <v>227.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>106.0</v>
+        <v>228.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>107.0</v>
+        <v>229.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>174.0</v>
+        <v>230.0</v>
       </c>
       <c r="AP5" t="n">
-        <v>173.0</v>
+        <v>251.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>172.0</v>
+        <v>250.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>171.0</v>
+        <v>247.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>170.0</v>
+        <v>243.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>169.0</v>
+        <v>242.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>168.0</v>
+        <v>241.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>167.0</v>
+        <v>244.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>166.0</v>
+        <v>245.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>165.0</v>
+        <v>240.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>164.0</v>
+        <v>239.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>163.0</v>
+        <v>246.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>162.0</v>
+        <v>231.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>161.0</v>
+        <v>238.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>175.0</v>
+        <v>237.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>160.0</v>
+        <v>232.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>159.0</v>
+        <v>233.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>158.0</v>
+        <v>236.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>157.0</v>
+        <v>235.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>119.0</v>
+        <v>234.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>120.0</v>
+        <v>219.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>121.0</v>
+        <v>218.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>122.0</v>
+        <v>220.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>123.0</v>
+        <v>217.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>124.0</v>
+        <v>215.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>154.0</v>
+        <v>214.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>155.0</v>
+        <v>216.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>153.0</v>
+        <v>213.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>156.0</v>
+        <v>211.0</v>
       </c>
       <c r="BR5" t="n">
-        <v>152.0</v>
+        <v>210.0</v>
       </c>
       <c r="BS5" t="n">
-        <v>151.0</v>
+        <v>212.0</v>
       </c>
       <c r="BT5" t="n">
-        <v>177.0</v>
+        <v>207.0</v>
       </c>
       <c r="BU5" t="n">
-        <v>176.0</v>
+        <v>209.0</v>
       </c>
       <c r="BV5" t="n">
-        <v>178.0</v>
+        <v>208.0</v>
       </c>
       <c r="BW5" t="n">
-        <v>150.0</v>
+        <v>253.0</v>
       </c>
       <c r="BX5" t="n">
-        <v>181.0</v>
+        <v>254.0</v>
       </c>
       <c r="BY5" t="n">
-        <v>182.0</v>
+        <v>257.0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>183.0</v>
+        <v>258.0</v>
       </c>
       <c r="CA5" t="n">
-        <v>184.0</v>
+        <v>256.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>185.0</v>
+        <v>278.0</v>
       </c>
       <c r="CC5" t="n">
-        <v>187.0</v>
+        <v>279.0</v>
       </c>
       <c r="CD5" t="n">
-        <v>188.0</v>
+        <v>3.0</v>
       </c>
       <c r="CE5" t="n">
-        <v>189.0</v>
+        <v>280.0</v>
       </c>
       <c r="CF5" t="n">
-        <v>190.0</v>
+        <v>1.0</v>
       </c>
       <c r="CG5" t="n">
-        <v>191.0</v>
+        <v>2.0</v>
       </c>
       <c r="CH5" t="n">
-        <v>192.0</v>
+        <v>248.0</v>
       </c>
       <c r="CI5" t="n">
-        <v>195.0</v>
+        <v>249.0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>196.0</v>
+        <v>255.0</v>
       </c>
       <c r="CK5" t="n">
-        <v>201.0</v>
+        <v>252.0</v>
       </c>
       <c r="CL5" t="n">
-        <v>200.0</v>
+        <v>206.0</v>
       </c>
       <c r="CM5" t="n">
-        <v>199.0</v>
+        <v>205.0</v>
       </c>
       <c r="CN5" t="n">
-        <v>198.0</v>
+        <v>204.0</v>
       </c>
       <c r="CO5" t="n">
-        <v>197.0</v>
+        <v>203.0</v>
       </c>
       <c r="CP5" t="n">
-        <v>194.0</v>
+        <v>202.0</v>
       </c>
       <c r="CQ5" t="n">
         <v>193.0</v>
@@ -486,559 +486,559 @@
         <v>186.0</v>
       </c>
       <c r="CS5" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="EZ5" t="n">
         <v>180.0</v>
       </c>
-      <c r="CT5" t="n">
-        <v>179.0</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>143.0</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>202.0</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>203.0</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>205.0</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>206.0</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>208.0</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>253.0</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>254.0</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>255.0</v>
-      </c>
-      <c r="DH5" t="n">
-        <v>252.0</v>
-      </c>
-      <c r="DI5" t="n">
-        <v>209.0</v>
-      </c>
-      <c r="DJ5" t="n">
-        <v>207.0</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>212.0</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>210.0</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>211.0</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>213.0</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>216.0</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>217.0</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>220.0</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>221.0</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>222.0</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>219.0</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>218.0</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>214.0</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>215.0</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>223.0</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>224.0</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>225.0</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>226.0</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>227.0</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>228.0</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>229.0</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>230.0</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>234.0</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>235.0</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>236.0</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>233.0</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>232.0</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>231.0</v>
-      </c>
-      <c r="EM5" t="n">
-        <v>246.0</v>
-      </c>
-      <c r="EN5" t="n">
-        <v>238.0</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>239.0</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>240.0</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>245.0</v>
-      </c>
-      <c r="ER5" t="n">
-        <v>251.0</v>
-      </c>
-      <c r="ES5" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="ET5" t="n">
-        <v>247.0</v>
-      </c>
-      <c r="EU5" t="n">
-        <v>244.0</v>
-      </c>
-      <c r="EV5" t="n">
-        <v>241.0</v>
-      </c>
-      <c r="EW5" t="n">
-        <v>242.0</v>
-      </c>
-      <c r="EX5" t="n">
-        <v>243.0</v>
-      </c>
-      <c r="EY5" t="n">
-        <v>248.0</v>
-      </c>
-      <c r="EZ5" t="n">
-        <v>249.0</v>
-      </c>
       <c r="FA5" t="n">
-        <v>256.0</v>
+        <v>165.0</v>
       </c>
       <c r="FB5" t="n">
-        <v>257.0</v>
+        <v>164.0</v>
       </c>
       <c r="FC5" t="n">
-        <v>258.0</v>
+        <v>163.0</v>
       </c>
       <c r="FD5" t="n">
-        <v>259.0</v>
+        <v>162.0</v>
       </c>
       <c r="FE5" t="n">
-        <v>263.0</v>
+        <v>161.0</v>
       </c>
       <c r="FF5" t="n">
-        <v>262.0</v>
+        <v>175.0</v>
       </c>
       <c r="FG5" t="n">
-        <v>261.0</v>
+        <v>160.0</v>
       </c>
       <c r="FH5" t="n">
-        <v>260.0</v>
+        <v>159.0</v>
       </c>
       <c r="FI5" t="n">
-        <v>278.0</v>
+        <v>158.0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>279.0</v>
+        <v>157.0</v>
       </c>
       <c r="FK5" t="n">
-        <v>4.0</v>
+        <v>119.0</v>
       </c>
       <c r="FL5" t="n">
-        <v>277.0</v>
+        <v>120.0</v>
       </c>
       <c r="FM5" t="n">
-        <v>6.0</v>
+        <v>121.0</v>
       </c>
       <c r="FN5" t="n">
-        <v>9.0</v>
+        <v>122.0</v>
       </c>
       <c r="FO5" t="n">
-        <v>276.0</v>
+        <v>123.0</v>
       </c>
       <c r="FP5" t="n">
-        <v>275.0</v>
+        <v>124.0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>274.0</v>
+        <v>125.0</v>
       </c>
       <c r="FR5" t="n">
-        <v>273.0</v>
+        <v>30.0</v>
       </c>
       <c r="FS5" t="n">
-        <v>272.0</v>
+        <v>31.0</v>
       </c>
       <c r="FT5" t="n">
-        <v>271.0</v>
+        <v>32.0</v>
       </c>
       <c r="FU5" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="FV5" t="n">
-        <v>17.0</v>
+        <v>27.0</v>
       </c>
       <c r="FW5" t="n">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
       <c r="FX5" t="n">
-        <v>133.0</v>
+        <v>22.0</v>
       </c>
       <c r="FY5" t="n">
-        <v>134.0</v>
+        <v>25.0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>135.0</v>
+        <v>23.0</v>
       </c>
       <c r="GA5" t="n">
-        <v>136.0</v>
+        <v>24.0</v>
       </c>
       <c r="GB5" t="n">
-        <v>137.0</v>
+        <v>29.0</v>
       </c>
       <c r="GC5" t="n">
-        <v>138.0</v>
+        <v>126.0</v>
       </c>
       <c r="GD5" t="n">
-        <v>139.0</v>
+        <v>127.0</v>
       </c>
       <c r="GE5" t="n">
-        <v>149.0</v>
+        <v>128.0</v>
       </c>
       <c r="GF5" t="n">
-        <v>148.0</v>
+        <v>21.0</v>
       </c>
       <c r="GG5" t="n">
-        <v>147.0</v>
+        <v>129.0</v>
       </c>
       <c r="GH5" t="n">
-        <v>142.0</v>
+        <v>130.0</v>
       </c>
       <c r="GI5" t="n">
-        <v>141.0</v>
+        <v>20.0</v>
       </c>
       <c r="GJ5" t="n">
-        <v>140.0</v>
+        <v>19.0</v>
       </c>
       <c r="GK5" t="n">
-        <v>266.0</v>
+        <v>132.0</v>
       </c>
       <c r="GL5" t="n">
-        <v>265.0</v>
+        <v>131.0</v>
       </c>
       <c r="GM5" t="n">
-        <v>264.0</v>
+        <v>172.0</v>
       </c>
       <c r="GN5" t="n">
-        <v>267.0</v>
+        <v>171.0</v>
       </c>
       <c r="GO5" t="n">
-        <v>268.0</v>
+        <v>170.0</v>
       </c>
       <c r="GP5" t="n">
-        <v>269.0</v>
+        <v>169.0</v>
       </c>
       <c r="GQ5" t="n">
-        <v>270.0</v>
+        <v>102.0</v>
       </c>
       <c r="GR5" t="n">
-        <v>132.0</v>
+        <v>103.0</v>
       </c>
       <c r="GS5" t="n">
-        <v>131.0</v>
+        <v>104.0</v>
       </c>
       <c r="GT5" t="n">
-        <v>21.0</v>
+        <v>108.0</v>
       </c>
       <c r="GU5" t="n">
-        <v>20.0</v>
+        <v>107.0</v>
       </c>
       <c r="GV5" t="n">
-        <v>19.0</v>
+        <v>174.0</v>
       </c>
       <c r="GW5" t="n">
-        <v>130.0</v>
+        <v>173.0</v>
       </c>
       <c r="GX5" t="n">
-        <v>129.0</v>
+        <v>106.0</v>
       </c>
       <c r="GY5" t="n">
-        <v>128.0</v>
+        <v>105.0</v>
       </c>
       <c r="GZ5" t="n">
-        <v>127.0</v>
+        <v>92.0</v>
       </c>
       <c r="HA5" t="n">
-        <v>126.0</v>
+        <v>91.0</v>
       </c>
       <c r="HB5" t="n">
-        <v>125.0</v>
+        <v>90.0</v>
       </c>
       <c r="HC5" t="n">
-        <v>30.0</v>
+        <v>93.0</v>
       </c>
       <c r="HD5" t="n">
-        <v>31.0</v>
+        <v>94.0</v>
       </c>
       <c r="HE5" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="IF5" t="n">
         <v>34.0</v>
       </c>
-      <c r="HF5" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="HG5" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="HH5" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="HI5" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="HJ5" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="HK5" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="HL5" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="HM5" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="HN5" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="HO5" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="HP5" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="HQ5" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="HR5" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="HS5" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="HT5" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="HU5" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="HV5" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="HW5" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="HX5" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="HY5" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="HZ5" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="IA5" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="IB5" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="IC5" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="ID5" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="IE5" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="IF5" t="n">
-        <v>66.0</v>
-      </c>
       <c r="IG5" t="n">
-        <v>65.0</v>
+        <v>62.0</v>
       </c>
       <c r="IH5" t="n">
         <v>63.0</v>
       </c>
       <c r="II5" t="n">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
       <c r="IJ5" t="n">
-        <v>118.0</v>
+        <v>44.0</v>
       </c>
       <c r="IK5" t="n">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
       <c r="IL5" t="n">
-        <v>60.0</v>
+        <v>46.0</v>
       </c>
       <c r="IM5" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="IN5" t="n">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="IO5" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="IP5" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="IQ5" t="n">
-        <v>39.0</v>
+        <v>51.0</v>
       </c>
       <c r="IR5" t="n">
-        <v>38.0</v>
+        <v>52.0</v>
       </c>
       <c r="IS5" t="n">
-        <v>49.0</v>
+        <v>53.0</v>
       </c>
       <c r="IT5" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="IU5" t="n">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="IV5" t="n">
-        <v>50.0</v>
+        <v>56.0</v>
       </c>
       <c r="IW5" t="n">
-        <v>37.0</v>
+        <v>57.0</v>
       </c>
       <c r="IX5" t="n">
-        <v>36.0</v>
+        <v>58.0</v>
       </c>
       <c r="IY5" t="n">
-        <v>33.0</v>
+        <v>64.0</v>
       </c>
       <c r="IZ5" t="n">
-        <v>32.0</v>
+        <v>65.0</v>
       </c>
       <c r="JA5" t="n">
-        <v>29.0</v>
+        <v>85.0</v>
       </c>
       <c r="JB5" t="n">
-        <v>28.0</v>
+        <v>84.0</v>
       </c>
       <c r="JC5" t="n">
-        <v>27.0</v>
+        <v>83.0</v>
       </c>
       <c r="JD5" t="n">
-        <v>26.0</v>
+        <v>82.0</v>
       </c>
       <c r="JE5" t="n">
-        <v>22.0</v>
+        <v>81.0</v>
       </c>
       <c r="JF5" t="n">
-        <v>25.0</v>
+        <v>79.0</v>
       </c>
       <c r="JG5" t="n">
-        <v>23.0</v>
+        <v>76.0</v>
       </c>
       <c r="JH5" t="n">
-        <v>24.0</v>
+        <v>66.0</v>
       </c>
       <c r="JI5" t="n">
-        <v>15.0</v>
+        <v>67.0</v>
       </c>
       <c r="JJ5" t="n">
-        <v>14.0</v>
+        <v>68.0</v>
       </c>
       <c r="JK5" t="n">
-        <v>13.0</v>
+        <v>69.0</v>
       </c>
       <c r="JL5" t="n">
-        <v>12.0</v>
+        <v>70.0</v>
       </c>
       <c r="JM5" t="n">
-        <v>11.0</v>
+        <v>71.0</v>
       </c>
       <c r="JN5" t="n">
-        <v>10.0</v>
+        <v>72.0</v>
       </c>
       <c r="JO5" t="n">
-        <v>8.0</v>
+        <v>73.0</v>
       </c>
       <c r="JP5" t="n">
-        <v>7.0</v>
+        <v>74.0</v>
       </c>
       <c r="JQ5" t="n">
-        <v>5.0</v>
+        <v>75.0</v>
       </c>
       <c r="JR5" t="n">
-        <v>3.0</v>
+        <v>77.0</v>
       </c>
       <c r="JS5" t="n">
-        <v>280.0</v>
+        <v>78.0</v>
       </c>
       <c r="JT5" t="n">
-        <v>2.0</v>
+        <v>95.0</v>
       </c>
       <c r="JU5" t="n">
-        <v>1.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="7">

--- a/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.51854563E9</v>
+        <v>-1.518546794E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
